--- a/ALL API Calls.xlsx
+++ b/ALL API Calls.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE4A945-F823-4FDD-8A75-7A58A749DA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -205,7 +206,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -337,8 +338,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -373,12 +378,8 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -532,21 +533,24 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:H102" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="B2:H102"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:H102" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="B2:H102" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="S No" dataDxfId="6"/>
-    <tableColumn id="2" name="Page" dataDxfId="5"/>
-    <tableColumn id="3" name="Method" dataDxfId="4"/>
-    <tableColumn id="4" name="API" dataDxfId="3"/>
-    <tableColumn id="12" name="API Status" dataDxfId="1"/>
-    <tableColumn id="13" name="Angular Status" dataDxfId="0"/>
-    <tableColumn id="11" name="Remark" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="S No" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Page" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Method" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="API" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="API Status" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Angular Status" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Remark" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -595,7 +599,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -628,9 +632,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -663,6 +684,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -838,23 +876,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
     <col min="5" max="5" width="46" customWidth="1"/>
-    <col min="6" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="6" max="7" width="16.44140625" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -877,7 +915,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -898,7 +936,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -919,7 +957,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -940,7 +978,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -961,7 +999,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -982,7 +1020,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -1003,7 +1041,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -1024,7 +1062,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -1045,7 +1083,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -1066,7 +1104,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -1087,7 +1125,7 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -1108,7 +1146,7 @@
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -1129,7 +1167,7 @@
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -1150,7 +1188,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -1171,7 +1209,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -1192,7 +1230,7 @@
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -1213,7 +1251,7 @@
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -1234,7 +1272,7 @@
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -1255,7 +1293,7 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -1276,7 +1314,7 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -1297,7 +1335,7 @@
       </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -1318,7 +1356,7 @@
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -1339,7 +1377,7 @@
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -1360,7 +1398,7 @@
       </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>24</v>
       </c>
@@ -1381,7 +1419,7 @@
       </c>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>25</v>
       </c>
@@ -1402,7 +1440,7 @@
       </c>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
         <v>26</v>
       </c>
@@ -1423,7 +1461,7 @@
       </c>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
         <v>27</v>
       </c>
@@ -1444,7 +1482,7 @@
       </c>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
         <v>28</v>
       </c>
@@ -1465,7 +1503,7 @@
       </c>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
         <v>29</v>
       </c>
@@ -1486,7 +1524,7 @@
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
         <v>30</v>
       </c>
@@ -1507,7 +1545,7 @@
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
         <v>31</v>
       </c>
@@ -1528,7 +1566,7 @@
       </c>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="1">
         <v>32</v>
       </c>
@@ -1549,7 +1587,7 @@
       </c>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="1">
         <v>33</v>
       </c>
@@ -1570,7 +1608,7 @@
       </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="1">
         <v>34</v>
       </c>
@@ -1591,7 +1629,7 @@
       </c>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="1">
         <v>35</v>
       </c>
@@ -1612,7 +1650,7 @@
       </c>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="1">
         <v>36</v>
       </c>
@@ -1633,7 +1671,7 @@
       </c>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="1">
         <v>37</v>
       </c>
@@ -1654,7 +1692,7 @@
       </c>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="1">
         <v>38</v>
       </c>
@@ -1675,7 +1713,7 @@
       </c>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="1">
         <v>39</v>
       </c>
@@ -1696,7 +1734,7 @@
       </c>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="1">
         <v>40</v>
       </c>
@@ -1717,7 +1755,7 @@
       </c>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="1">
         <v>41</v>
       </c>
@@ -1738,7 +1776,7 @@
       </c>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="1">
         <v>42</v>
       </c>
@@ -1761,7 +1799,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="1">
         <v>43</v>
       </c>
@@ -1782,7 +1820,7 @@
       </c>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="1">
         <v>44</v>
       </c>
@@ -1803,7 +1841,7 @@
       </c>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="1">
         <v>45</v>
       </c>
@@ -1814,7 +1852,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="1">
         <v>46</v>
       </c>
@@ -1825,7 +1863,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="1">
         <v>47</v>
       </c>
@@ -1836,7 +1874,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="1">
         <v>48</v>
       </c>
@@ -1847,7 +1885,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="1">
         <v>49</v>
       </c>
@@ -1858,7 +1896,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="1">
         <v>50</v>
       </c>
@@ -1869,7 +1907,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="1">
         <v>51</v>
       </c>
@@ -1880,7 +1918,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="1">
         <v>52</v>
       </c>
@@ -1891,7 +1929,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="1">
         <v>53</v>
       </c>
@@ -1902,7 +1940,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="1">
         <v>54</v>
       </c>
@@ -1913,7 +1951,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="1">
         <v>55</v>
       </c>
@@ -1924,7 +1962,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="1">
         <v>56</v>
       </c>
@@ -1935,7 +1973,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="1">
         <v>57</v>
       </c>
@@ -1946,7 +1984,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="1">
         <v>58</v>
       </c>
@@ -1957,7 +1995,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="1">
         <v>59</v>
       </c>
@@ -1968,7 +2006,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" s="1">
         <v>60</v>
       </c>
@@ -1979,7 +2017,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B63" s="1">
         <v>61</v>
       </c>
@@ -1990,7 +2028,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B64" s="1">
         <v>62</v>
       </c>
@@ -2001,7 +2039,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B65" s="1">
         <v>63</v>
       </c>
@@ -2012,7 +2050,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66" s="1">
         <v>64</v>
       </c>
@@ -2023,7 +2061,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B67" s="1">
         <v>65</v>
       </c>
@@ -2034,7 +2072,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B68" s="1">
         <v>66</v>
       </c>
@@ -2045,7 +2083,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B69" s="1">
         <v>67</v>
       </c>
@@ -2056,7 +2094,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B70" s="1">
         <v>68</v>
       </c>
@@ -2067,7 +2105,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B71" s="1">
         <v>69</v>
       </c>
@@ -2078,7 +2116,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B72" s="1">
         <v>70</v>
       </c>
@@ -2089,7 +2127,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B73" s="1">
         <v>71</v>
       </c>
@@ -2100,7 +2138,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B74" s="1">
         <v>72</v>
       </c>
@@ -2111,7 +2149,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B75" s="1">
         <v>73</v>
       </c>
@@ -2122,7 +2160,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B76" s="1">
         <v>74</v>
       </c>
@@ -2133,7 +2171,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B77" s="1">
         <v>75</v>
       </c>
@@ -2144,7 +2182,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B78" s="1">
         <v>76</v>
       </c>
@@ -2155,7 +2193,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B79" s="1">
         <v>77</v>
       </c>
@@ -2166,7 +2204,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B80" s="1">
         <v>78</v>
       </c>
@@ -2177,7 +2215,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" s="1">
         <v>79</v>
       </c>
@@ -2188,7 +2226,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B82" s="1">
         <v>80</v>
       </c>
@@ -2199,7 +2237,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B83" s="1">
         <v>81</v>
       </c>
@@ -2210,7 +2248,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B84" s="1">
         <v>82</v>
       </c>
@@ -2221,7 +2259,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B85" s="1">
         <v>83</v>
       </c>
@@ -2232,7 +2270,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B86" s="1">
         <v>84</v>
       </c>
@@ -2243,7 +2281,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B87" s="1">
         <v>85</v>
       </c>
@@ -2254,7 +2292,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B88" s="1">
         <v>86</v>
       </c>
@@ -2265,7 +2303,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B89" s="1">
         <v>87</v>
       </c>
@@ -2276,7 +2314,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B90" s="1">
         <v>88</v>
       </c>
@@ -2287,7 +2325,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B91" s="1">
         <v>89</v>
       </c>
@@ -2298,7 +2336,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B92" s="1">
         <v>90</v>
       </c>
@@ -2309,7 +2347,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B93" s="1">
         <v>91</v>
       </c>
@@ -2320,7 +2358,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B94" s="1">
         <v>92</v>
       </c>
@@ -2331,7 +2369,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B95" s="1">
         <v>93</v>
       </c>
@@ -2342,7 +2380,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B96" s="1">
         <v>94</v>
       </c>
@@ -2353,7 +2391,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B97" s="1">
         <v>95</v>
       </c>
@@ -2364,7 +2402,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B98" s="1">
         <v>96</v>
       </c>
@@ -2375,7 +2413,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B99" s="1">
         <v>97</v>
       </c>
@@ -2386,7 +2424,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B100" s="1">
         <v>98</v>
       </c>
@@ -2397,7 +2435,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B101" s="1">
         <v>99</v>
       </c>
@@ -2408,7 +2446,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B102" s="1">
         <v>100</v>
       </c>

--- a/ALL API Calls.xlsx
+++ b/ALL API Calls.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE4A945-F823-4FDD-8A75-7A58A749DA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -206,7 +205,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -317,8 +316,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,16 +540,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:H102" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="B2:H102" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:H102" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="B2:H102"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="S No" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Page" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Method" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="API" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="API Status" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Angular Status" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Remark" dataDxfId="0"/>
+    <tableColumn id="1" name="S No" dataDxfId="6"/>
+    <tableColumn id="2" name="Page" dataDxfId="5"/>
+    <tableColumn id="3" name="Method" dataDxfId="4"/>
+    <tableColumn id="4" name="API" dataDxfId="3"/>
+    <tableColumn id="12" name="API Status" dataDxfId="2"/>
+    <tableColumn id="13" name="Angular Status" dataDxfId="1"/>
+    <tableColumn id="11" name="Remark" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -599,7 +598,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -632,26 +631,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -684,23 +666,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -876,23 +841,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="46" customWidth="1"/>
-    <col min="6" max="7" width="16.44140625" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" customWidth="1"/>
+    <col min="6" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -915,20 +880,20 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="3" t="s">
         <v>59</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -936,20 +901,20 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="3" t="s">
         <v>59</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -957,7 +922,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -978,7 +943,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -999,7 +964,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -1020,7 +985,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -1041,7 +1006,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -1062,7 +1027,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -1083,7 +1048,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -1104,7 +1069,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -1125,7 +1090,7 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -1146,7 +1111,7 @@
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -1167,7 +1132,7 @@
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -1188,7 +1153,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -1209,7 +1174,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -1230,7 +1195,7 @@
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -1251,7 +1216,7 @@
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -1272,7 +1237,7 @@
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -1293,7 +1258,7 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -1314,7 +1279,7 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -1335,7 +1300,7 @@
       </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -1356,7 +1321,7 @@
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -1377,7 +1342,7 @@
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -1398,7 +1363,7 @@
       </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>24</v>
       </c>
@@ -1419,7 +1384,7 @@
       </c>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>25</v>
       </c>
@@ -1440,7 +1405,7 @@
       </c>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
         <v>26</v>
       </c>
@@ -1461,7 +1426,7 @@
       </c>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
         <v>27</v>
       </c>
@@ -1482,7 +1447,7 @@
       </c>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
         <v>28</v>
       </c>
@@ -1503,7 +1468,7 @@
       </c>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
         <v>29</v>
       </c>
@@ -1524,7 +1489,7 @@
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
         <v>30</v>
       </c>
@@ -1545,7 +1510,7 @@
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
         <v>31</v>
       </c>
@@ -1566,7 +1531,7 @@
       </c>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B34" s="1">
         <v>32</v>
       </c>
@@ -1587,7 +1552,7 @@
       </c>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B35" s="1">
         <v>33</v>
       </c>
@@ -1608,7 +1573,7 @@
       </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B36" s="1">
         <v>34</v>
       </c>
@@ -1629,7 +1594,7 @@
       </c>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B37" s="1">
         <v>35</v>
       </c>
@@ -1650,7 +1615,7 @@
       </c>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B38" s="1">
         <v>36</v>
       </c>
@@ -1671,7 +1636,7 @@
       </c>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B39" s="1">
         <v>37</v>
       </c>
@@ -1692,17 +1657,17 @@
       </c>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>38</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="3" t="s">
         <v>50</v>
       </c>
       <c r="F40" s="3" t="s">
@@ -1713,17 +1678,17 @@
       </c>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>39</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="7" t="s">
+      <c r="D41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F41" s="3" t="s">
@@ -1734,17 +1699,17 @@
       </c>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>40</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="7" t="s">
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F42" s="3" t="s">
@@ -1755,17 +1720,17 @@
       </c>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>41</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F43" s="3" t="s">
@@ -1776,8 +1741,8 @@
       </c>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="1">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="7">
         <v>42</v>
       </c>
       <c r="C44" s="7" t="s">
@@ -1789,17 +1754,17 @@
       <c r="E44" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G44" s="9" t="s">
+      <c r="F44" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="G44" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H44" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B45" s="1">
         <v>43</v>
       </c>
@@ -1815,12 +1780,12 @@
       <c r="F45" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="8" t="s">
         <v>56</v>
       </c>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B46" s="1">
         <v>44</v>
       </c>
@@ -1836,12 +1801,12 @@
       <c r="F46" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="8" t="s">
         <v>56</v>
       </c>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B47" s="1">
         <v>45</v>
       </c>
@@ -1852,7 +1817,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B48" s="1">
         <v>46</v>
       </c>
@@ -1863,7 +1828,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B49" s="1">
         <v>47</v>
       </c>
@@ -1874,7 +1839,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B50" s="1">
         <v>48</v>
       </c>
@@ -1885,7 +1850,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B51" s="1">
         <v>49</v>
       </c>
@@ -1896,7 +1861,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B52" s="1">
         <v>50</v>
       </c>
@@ -1907,7 +1872,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>51</v>
       </c>
@@ -1918,7 +1883,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>52</v>
       </c>
@@ -1929,7 +1894,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>53</v>
       </c>
@@ -1940,7 +1905,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>54</v>
       </c>
@@ -1951,7 +1916,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>55</v>
       </c>
@@ -1962,7 +1927,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>56</v>
       </c>
@@ -1973,7 +1938,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>57</v>
       </c>
@@ -1984,7 +1949,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>58</v>
       </c>
@@ -1995,7 +1960,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>59</v>
       </c>
@@ -2006,7 +1971,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>60</v>
       </c>
@@ -2017,7 +1982,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>61</v>
       </c>
@@ -2028,7 +1993,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>62</v>
       </c>
@@ -2039,7 +2004,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>63</v>
       </c>
@@ -2050,7 +2015,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>64</v>
       </c>
@@ -2061,7 +2026,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>65</v>
       </c>
@@ -2072,7 +2037,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>66</v>
       </c>
@@ -2083,7 +2048,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>67</v>
       </c>
@@ -2094,7 +2059,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>68</v>
       </c>
@@ -2105,7 +2070,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>69</v>
       </c>
@@ -2116,7 +2081,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>70</v>
       </c>
@@ -2127,7 +2092,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>71</v>
       </c>
@@ -2138,7 +2103,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>72</v>
       </c>
@@ -2149,7 +2114,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>73</v>
       </c>
@@ -2160,7 +2125,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>74</v>
       </c>
@@ -2171,7 +2136,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>75</v>
       </c>
@@ -2182,7 +2147,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <v>76</v>
       </c>
@@ -2193,7 +2158,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>77</v>
       </c>
@@ -2204,7 +2169,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>78</v>
       </c>
@@ -2215,7 +2180,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>79</v>
       </c>
@@ -2226,7 +2191,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>80</v>
       </c>
@@ -2237,7 +2202,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>81</v>
       </c>
@@ -2248,7 +2213,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>82</v>
       </c>
@@ -2259,7 +2224,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>83</v>
       </c>
@@ -2270,7 +2235,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>84</v>
       </c>
@@ -2281,7 +2246,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>85</v>
       </c>
@@ -2292,7 +2257,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <v>86</v>
       </c>
@@ -2303,7 +2268,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
         <v>87</v>
       </c>
@@ -2314,7 +2279,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
         <v>88</v>
       </c>
@@ -2325,7 +2290,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
         <v>89</v>
       </c>
@@ -2336,7 +2301,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <v>90</v>
       </c>
@@ -2347,7 +2312,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
         <v>91</v>
       </c>
@@ -2358,7 +2323,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
         <v>92</v>
       </c>
@@ -2369,7 +2334,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
         <v>93</v>
       </c>
@@ -2380,7 +2345,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
         <v>94</v>
       </c>
@@ -2391,7 +2356,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="1">
         <v>95</v>
       </c>
@@ -2402,7 +2367,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
         <v>96</v>
       </c>
@@ -2413,7 +2378,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="1">
         <v>97</v>
       </c>
@@ -2424,7 +2389,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="1">
         <v>98</v>
       </c>
@@ -2435,7 +2400,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="1">
         <v>99</v>
       </c>
@@ -2446,7 +2411,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="1">
         <v>100</v>
       </c>

--- a/ALL API Calls.xlsx
+++ b/ALL API Calls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="74">
   <si>
     <t>S No</t>
   </si>
@@ -200,6 +200,42 @@
   </si>
   <si>
     <t>/student/donationView</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>/course/getAll?operation=courseCategory</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>/course/addCourse</t>
+  </si>
+  <si>
+    <t>Class Media</t>
+  </si>
+  <si>
+    <t>/course/getAll?operation=classMedia</t>
+  </si>
+  <si>
+    <t>/course/getAll?operation=courseMediaCategory</t>
+  </si>
+  <si>
+    <t>Course Media</t>
+  </si>
+  <si>
+    <t>/course/addCourseMedia?type=video</t>
+  </si>
+  <si>
+    <t>/course/addCourseMedia?type=shortVideo</t>
+  </si>
+  <si>
+    <t>/course/addCourseMedia?type=glimpses</t>
   </si>
 </sst>
 </file>
@@ -844,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1783,9 +1819,11 @@
       <c r="G45" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="H45" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>44</v>
       </c>
@@ -1804,84 +1842,170 @@
       <c r="G46" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="H46" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>45</v>
       </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>46</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>47</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>48</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>49</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C51" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>50</v>
       </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>51</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
